--- a/ig/document/StructureDefinition-medcom-document-composition.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-07T10:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +449,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -849,7 +849,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1885,17 +1885,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,27 +1904,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-composition.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-07T11:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +449,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -849,7 +849,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1885,17 +1885,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,27 +1904,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-composition.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-08T09:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +449,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -849,7 +849,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1885,17 +1885,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,27 +1904,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-composition.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-08T10:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +449,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -849,7 +849,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1885,17 +1885,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,27 +1904,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-composition.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-08T10:28:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +449,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -849,7 +849,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1885,17 +1885,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,27 +1904,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/document/StructureDefinition-medcom-document-composition.xlsx
+++ b/ig/document/StructureDefinition-medcom-document-composition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-15T06:44:26+01:00</t>
+    <t>2025-05-12T13:09:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -429,7 +429,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -449,7 +449,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -849,7 +849,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1885,17 +1885,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.51171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,27 +1904,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.80859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
